--- a/inst/riojaPlot/www/aber.xlsx
+++ b/inst/riojaPlot/www/aber.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\GitHub\rioja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\GitHub\rioja\inst\riojaPlot\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75180CC-325F-4636-A45B-3D6359D4DBC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6967F8F-2383-4588-8D90-430FE21307ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58635" yWindow="1695" windowWidth="23910" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aber" sheetId="2" r:id="rId1"/>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A9FD17-E182-4AE1-A3C1-5421DFDB49EE}">
   <dimension ref="A1:AL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6285,8 +6285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6466,9 +6466,6 @@
       <c r="K4">
         <v>2.3599998950958301</v>
       </c>
-      <c r="L4">
-        <v>0.36000001430511502</v>
-      </c>
       <c r="M4">
         <v>0.18000000715255701</v>
       </c>
@@ -6513,9 +6510,6 @@
       <c r="K5">
         <v>0.63999998569488503</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0.31999999284744302</v>
       </c>
@@ -6560,9 +6554,6 @@
       <c r="K6">
         <v>0.77999997138977095</v>
       </c>
-      <c r="L6">
-        <v>0.58999997377395597</v>
-      </c>
       <c r="M6">
         <v>0.38999998569488498</v>
       </c>
@@ -6607,9 +6598,6 @@
       <c r="K7">
         <v>0.37999999523162797</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
         <v>0.37999999523162797</v>
       </c>
@@ -6654,9 +6642,6 @@
       <c r="K8">
         <v>1.1399999856948899</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
         <v>0</v>
       </c>
@@ -6701,9 +6686,6 @@
       <c r="K9">
         <v>0.56000000238418601</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9">
         <v>1.12000000476837</v>
       </c>
@@ -6748,9 +6730,6 @@
       <c r="K10">
         <v>1.46000003814697</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
         <v>0.730000019073486</v>
       </c>
@@ -6795,9 +6774,6 @@
       <c r="K11">
         <v>0.18000000715255701</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
       <c r="M11">
         <v>1.9700000286102299</v>
       </c>
@@ -6842,9 +6818,6 @@
       <c r="K12">
         <v>0.68999999761581399</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
       <c r="M12">
         <v>1.9099999666214</v>
       </c>
@@ -6889,9 +6862,6 @@
       <c r="K13">
         <v>0.5</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
       <c r="M13">
         <v>1.16999995708466</v>
       </c>
@@ -6936,9 +6906,6 @@
       <c r="K14">
         <v>2.0999999046325701</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
       <c r="M14">
         <v>1.5299999713897701</v>
       </c>
@@ -6983,9 +6950,6 @@
       <c r="K15">
         <v>0.479999989271164</v>
       </c>
-      <c r="L15">
-        <v>0.15999999642372101</v>
-      </c>
       <c r="M15">
         <v>2.0599999427795401</v>
       </c>
@@ -7030,9 +6994,6 @@
       <c r="K16">
         <v>0.40000000596046398</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
         <v>2.0099999904632599</v>
       </c>
@@ -7077,9 +7038,6 @@
       <c r="K17">
         <v>1.12000000476837</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
       <c r="M17">
         <v>3.21000003814697</v>
       </c>
@@ -7124,9 +7082,6 @@
       <c r="K18">
         <v>1.4299999475479099</v>
       </c>
-      <c r="L18">
-        <v>0.20000000298023199</v>
-      </c>
       <c r="M18">
         <v>2.6600000858306898</v>
       </c>
@@ -7168,9 +7123,6 @@
       <c r="J19">
         <v>0.18000000715255701</v>
       </c>
-      <c r="K19">
-        <v>0.87999999523162797</v>
-      </c>
       <c r="L19">
         <v>0.52999997138977095</v>
       </c>
@@ -7215,9 +7167,6 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>1.7400000095367401</v>
-      </c>
       <c r="L20">
         <v>0.57999998331069902</v>
       </c>
@@ -7262,9 +7211,6 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>2.5199999809265101</v>
-      </c>
       <c r="L21">
         <v>0.67000001668930098</v>
       </c>
@@ -7309,9 +7255,6 @@
       <c r="J22">
         <v>0.17000000178813901</v>
       </c>
-      <c r="K22">
-        <v>1.91999995708466</v>
-      </c>
       <c r="L22">
         <v>0.34999999403953602</v>
       </c>
@@ -7356,9 +7299,6 @@
       <c r="J23">
         <v>0.85000002384185802</v>
       </c>
-      <c r="K23">
-        <v>3.4100000858306898</v>
-      </c>
       <c r="L23">
         <v>0.34000000357627902</v>
       </c>
@@ -7403,9 +7343,6 @@
       <c r="J24">
         <v>0.74000000953674305</v>
       </c>
-      <c r="K24">
-        <v>2.2200000286102299</v>
-      </c>
       <c r="L24">
         <v>0.56000000238418601</v>
       </c>
@@ -7450,9 +7387,6 @@
       <c r="J25">
         <v>1.4099999666214</v>
       </c>
-      <c r="K25">
-        <v>1.4099999666214</v>
-      </c>
       <c r="L25">
         <v>0.52999997138977095</v>
       </c>
@@ -7494,12 +7428,6 @@
       <c r="I26">
         <v>6.2199997901916504</v>
       </c>
-      <c r="J26">
-        <v>5.5300002098083496</v>
-      </c>
-      <c r="K26">
-        <v>3.7999999523162802</v>
-      </c>
       <c r="L26">
         <v>1.37999999523163</v>
       </c>
@@ -7544,9 +7472,6 @@
       <c r="J27">
         <v>5.6599998474121103</v>
       </c>
-      <c r="K27">
-        <v>3.4700000286102299</v>
-      </c>
       <c r="L27">
         <v>1.46000003814697</v>
       </c>
@@ -7591,9 +7516,6 @@
       <c r="J28">
         <v>11.0100002288818</v>
       </c>
-      <c r="K28">
-        <v>1.95000004768372</v>
-      </c>
       <c r="L28">
         <v>3.2000000476837198</v>
       </c>
@@ -7635,12 +7557,6 @@
       <c r="I29">
         <v>4.1900000572204599</v>
       </c>
-      <c r="J29">
-        <v>8.5399999618530291</v>
-      </c>
-      <c r="K29">
-        <v>3.7300000190734899</v>
-      </c>
       <c r="L29">
         <v>1.54999995231628</v>
       </c>
@@ -7682,12 +7598,6 @@
       <c r="I30">
         <v>4.7199997901916504</v>
       </c>
-      <c r="J30">
-        <v>10.789999961853001</v>
-      </c>
-      <c r="K30">
-        <v>1.8500000238418599</v>
-      </c>
       <c r="L30">
         <v>1.8500000238418599</v>
       </c>
@@ -7732,9 +7642,6 @@
       <c r="J31">
         <v>20.4799995422363</v>
       </c>
-      <c r="K31">
-        <v>2.7200000286102299</v>
-      </c>
       <c r="L31">
         <v>1.4400000572204601</v>
       </c>
@@ -7775,9 +7682,6 @@
       </c>
       <c r="I32">
         <v>3.0099999904632599</v>
-      </c>
-      <c r="J32">
-        <v>22.040000915527301</v>
       </c>
       <c r="K32">
         <v>0.33000001311302202</v>
